--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="855"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>説明／備考</t>
   </si>
@@ -240,20 +240,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>岩岬</t>
-    <rPh sb="0" eb="2">
-      <t>イワサキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>渡辺</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1510,6 +1496,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,12 +1572,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1699,7 +1685,7 @@
         <xdr:cNvPr id="12" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1706,7 @@
           <xdr:cNvPr id="13" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1773,7 +1759,7 @@
           <xdr:cNvPr id="14" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2092,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -2679,7 +2665,7 @@
       <c r="D8" s="52"/>
       <c r="E8" s="53"/>
       <c r="F8" s="66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
@@ -2717,7 +2703,7 @@
       <c r="D9" s="70"/>
       <c r="E9" s="71"/>
       <c r="F9" s="75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="76"/>
       <c r="H9" s="76"/>
@@ -2975,7 +2961,7 @@
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17" s="84"/>
       <c r="J17" s="84"/>
@@ -3288,7 +3274,7 @@
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
       <c r="F26" s="81">
-        <v>38487</v>
+        <v>45404</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="82"/>
@@ -3314,12 +3300,8 @@
       <c r="Z26" s="56"/>
       <c r="AA26" s="56"/>
       <c r="AB26" s="57"/>
-      <c r="AC26" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD26" s="57" t="s">
-        <v>36</v>
-      </c>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="57"/>
       <c r="AE26" s="45"/>
       <c r="AF26" s="50"/>
     </row>
@@ -3924,7 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3948,57 +3930,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="91">
+      <c r="O1" s="93">
         <v>45404</v>
       </c>
-      <c r="P1" s="92"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
@@ -4008,48 +3990,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="96"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="106"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="108"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -4090,10 +4072,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="108"/>
+      <c r="M6" s="110"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4109,10 +4091,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>18</v>
@@ -4134,17 +4116,17 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="112"/>
+      <c r="N7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="110"/>
-      <c r="N7" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="O7" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P7" s="29"/>
     </row>
@@ -4153,13 +4135,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="26">
         <v>100</v>
@@ -4172,10 +4154,10 @@
       <c r="I8" s="25"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L8" s="85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M8" s="86"/>
       <c r="N8" s="28"/>
@@ -4187,13 +4169,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="26">
         <v>100</v>
@@ -4206,10 +4188,10 @@
       <c r="I9" s="25"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L9" s="85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M9" s="86"/>
       <c r="N9" s="28"/>
@@ -4221,13 +4203,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="26">
         <v>100</v>
@@ -4240,10 +4222,10 @@
       <c r="I10" s="25"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M10" s="86"/>
       <c r="N10" s="28"/>
@@ -4255,13 +4237,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="D11" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="26">
         <v>100</v>
@@ -4274,10 +4256,10 @@
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L11" s="85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M11" s="86"/>
       <c r="N11" s="28"/>
@@ -4289,13 +4271,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="26">
         <v>255</v>
@@ -4310,17 +4292,17 @@
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="112"/>
+        <v>100</v>
+      </c>
+      <c r="L12" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="88"/>
       <c r="N12" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P12" s="29"/>
     </row>
@@ -4329,13 +4311,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="26">
         <v>255</v>
@@ -4348,10 +4330,10 @@
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L13" s="85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M13" s="86"/>
       <c r="N13" s="34"/>
@@ -4363,13 +4345,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>74</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
@@ -4382,10 +4364,10 @@
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M14" s="86"/>
       <c r="N14" s="34"/>
@@ -4397,13 +4379,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="26">
         <v>7</v>
@@ -4416,10 +4398,10 @@
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L15" s="85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M15" s="86"/>
       <c r="N15" s="34"/>
@@ -4431,13 +4413,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="26">
         <v>100</v>
@@ -4450,10 +4432,10 @@
       <c r="I16" s="25"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L16" s="85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M16" s="86"/>
       <c r="N16" s="34"/>
@@ -4465,13 +4447,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="D17" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="26">
         <v>100</v>
@@ -4484,10 +4466,10 @@
       <c r="I17" s="25"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L17" s="85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M17" s="86"/>
       <c r="N17" s="34"/>
@@ -4499,13 +4481,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>85</v>
-      </c>
       <c r="D18" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="26">
         <v>255</v>
@@ -4518,10 +4500,10 @@
       <c r="I18" s="25"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L18" s="85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M18" s="86"/>
       <c r="N18" s="34"/>
@@ -4533,13 +4515,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" s="26">
         <v>1</v>
@@ -4552,10 +4534,10 @@
       <c r="I19" s="25"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L19" s="85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M19" s="86"/>
       <c r="N19" s="34"/>
@@ -4567,13 +4549,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="26">
         <v>1</v>
@@ -4586,10 +4568,10 @@
       <c r="I20" s="25"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L20" s="85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M20" s="86"/>
       <c r="N20" s="34"/>
@@ -4601,13 +4583,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
@@ -4616,10 +4598,10 @@
       <c r="I21" s="25"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L21" s="85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M21" s="86"/>
       <c r="N21" s="34"/>
@@ -4631,13 +4613,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>97</v>
-      </c>
       <c r="D22" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
@@ -4646,10 +4628,10 @@
       <c r="I22" s="25"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L22" s="85" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M22" s="86"/>
       <c r="N22" s="34"/>
@@ -4658,16 +4640,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4684,6 +4656,16 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
-    <sheet name="取引先マスタ" sheetId="164" r:id="rId2"/>
+    <sheet name="テーブル(registration)" sheetId="164" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">取引先マスタ!$A$1:$P$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'テーブル(registration)'!$A$1:$P$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
     <definedName name="範囲１">#REF!</definedName>
@@ -1496,82 +1496,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1685,7 +1685,7 @@
         <xdr:cNvPr id="12" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1706,7 @@
           <xdr:cNvPr id="13" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1759,7 +1759,7 @@
           <xdr:cNvPr id="14" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2078,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
@@ -3906,7 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3930,25 +3930,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3958,29 +3958,29 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="93">
+      <c r="O1" s="91">
         <v>45404</v>
       </c>
-      <c r="P1" s="94"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
@@ -3990,48 +3990,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -4072,10 +4072,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="110"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4118,10 +4118,10 @@
       <c r="K7" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="111" t="s">
+      <c r="L7" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="112"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28" t="s">
         <v>47</v>
       </c>
@@ -4294,10 +4294,10 @@
       <c r="K12" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="87" t="s">
+      <c r="L12" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="88"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="28" t="s">
         <v>66</v>
       </c>
@@ -4640,6 +4640,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4656,16 +4666,6 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
